--- a/pred_ohlcv/54/2019-10-10 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-10 ARN ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H266"/>
+  <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>281</v>
       </c>
       <c r="F2" t="n">
-        <v>1.773</v>
+        <v>428.6393</v>
       </c>
       <c r="G2" t="n">
-        <v>276.3833333333333</v>
+        <v>276.3333333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>281</v>
       </c>
       <c r="C3" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D3" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E3" t="n">
         <v>281</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>1.773</v>
       </c>
       <c r="G3" t="n">
-        <v>276.4333333333333</v>
+        <v>276.3833333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>281</v>
       </c>
       <c r="C4" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D4" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E4" t="n">
         <v>281</v>
       </c>
       <c r="F4" t="n">
-        <v>965</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>276.6833333333333</v>
+        <v>276.4333333333333</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>281</v>
       </c>
       <c r="F5" t="n">
-        <v>484.4185</v>
+        <v>965</v>
       </c>
       <c r="G5" t="n">
-        <v>276.7833333333334</v>
+        <v>276.6833333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C6" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D6" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E6" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F6" t="n">
-        <v>724</v>
+        <v>484.4185</v>
       </c>
       <c r="G6" t="n">
-        <v>276.85</v>
+        <v>276.7833333333334</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C7" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D7" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E7" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>724</v>
       </c>
       <c r="G7" t="n">
-        <v>276.9333333333333</v>
+        <v>276.85</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C8" t="n">
         <v>282</v>
@@ -573,15 +596,18 @@
         <v>282</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F8" t="n">
-        <v>66.4376</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>277.0166666666667</v>
+        <v>276.9333333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,21 +619,24 @@
         <v>280</v>
       </c>
       <c r="C9" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D9" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E9" t="n">
         <v>280</v>
       </c>
       <c r="F9" t="n">
-        <v>144.6583</v>
+        <v>66.4376</v>
       </c>
       <c r="G9" t="n">
-        <v>277.0666666666667</v>
+        <v>277.0166666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>280</v>
       </c>
       <c r="F10" t="n">
-        <v>1236.1843</v>
+        <v>144.6583</v>
       </c>
       <c r="G10" t="n">
-        <v>277.1166666666667</v>
+        <v>277.0666666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C11" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D11" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E11" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F11" t="n">
-        <v>791.8439716300001</v>
+        <v>1236.1843</v>
       </c>
       <c r="G11" t="n">
-        <v>277.2</v>
+        <v>277.1166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C12" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D12" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E12" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F12" t="n">
-        <v>2000</v>
+        <v>791.8439716300001</v>
       </c>
       <c r="G12" t="n">
-        <v>277.2666666666667</v>
+        <v>277.2</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C13" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D13" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E13" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F13" t="n">
-        <v>126</v>
+        <v>2000</v>
       </c>
       <c r="G13" t="n">
-        <v>277.35</v>
+        <v>277.2666666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>281</v>
+      </c>
+      <c r="C14" t="n">
         <v>282</v>
       </c>
-      <c r="C14" t="n">
-        <v>283</v>
-      </c>
       <c r="D14" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E14" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F14" t="n">
-        <v>810</v>
+        <v>126</v>
       </c>
       <c r="G14" t="n">
-        <v>277.4666666666666</v>
+        <v>277.35</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C15" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D15" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E15" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F15" t="n">
-        <v>62.0609</v>
+        <v>810</v>
       </c>
       <c r="G15" t="n">
-        <v>277.5666666666667</v>
+        <v>277.4666666666666</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C16" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D16" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E16" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F16" t="n">
-        <v>820.1431</v>
+        <v>62.0609</v>
       </c>
       <c r="G16" t="n">
-        <v>277.65</v>
+        <v>277.5666666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>280</v>
       </c>
       <c r="F17" t="n">
-        <v>123.9863</v>
+        <v>820.1431</v>
       </c>
       <c r="G17" t="n">
-        <v>277.7333333333333</v>
+        <v>277.65</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>280</v>
       </c>
       <c r="F18" t="n">
-        <v>57.7895</v>
+        <v>123.9863</v>
       </c>
       <c r="G18" t="n">
-        <v>277.8166666666667</v>
+        <v>277.7333333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,21 +909,24 @@
         <v>280</v>
       </c>
       <c r="C19" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D19" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E19" t="n">
         <v>280</v>
       </c>
       <c r="F19" t="n">
-        <v>930</v>
+        <v>57.7895</v>
       </c>
       <c r="G19" t="n">
-        <v>277.9666666666666</v>
+        <v>277.8166666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,21 +938,24 @@
         <v>280</v>
       </c>
       <c r="C20" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D20" t="n">
+        <v>284</v>
+      </c>
+      <c r="E20" t="n">
         <v>280</v>
       </c>
-      <c r="E20" t="n">
-        <v>279</v>
-      </c>
       <c r="F20" t="n">
-        <v>490.8871</v>
+        <v>930</v>
       </c>
       <c r="G20" t="n">
-        <v>278.0333333333334</v>
+        <v>277.9666666666666</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C21" t="n">
         <v>279</v>
       </c>
       <c r="D21" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E21" t="n">
         <v>279</v>
       </c>
       <c r="F21" t="n">
-        <v>223</v>
+        <v>490.8871</v>
       </c>
       <c r="G21" t="n">
-        <v>278.1</v>
+        <v>278.0333333333334</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C22" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D22" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E22" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F22" t="n">
-        <v>811.6559999999999</v>
+        <v>223</v>
       </c>
       <c r="G22" t="n">
-        <v>278.1666666666667</v>
+        <v>278.1</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>278</v>
       </c>
       <c r="F23" t="n">
-        <v>1015.4975</v>
+        <v>811.6559999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>278.2333333333333</v>
+        <v>278.1666666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C24" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D24" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E24" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F24" t="n">
-        <v>232.3189</v>
+        <v>1015.4975</v>
       </c>
       <c r="G24" t="n">
-        <v>278.3166666666667</v>
+        <v>278.2333333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>279</v>
       </c>
       <c r="F25" t="n">
-        <v>946.2059</v>
+        <v>232.3189</v>
       </c>
       <c r="G25" t="n">
-        <v>278.4</v>
+        <v>278.3166666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C26" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D26" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E26" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F26" t="n">
-        <v>7943.9458</v>
+        <v>946.2059</v>
       </c>
       <c r="G26" t="n">
-        <v>278.4666666666666</v>
+        <v>278.4</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C27" t="n">
         <v>278</v>
       </c>
       <c r="D27" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E27" t="n">
         <v>278</v>
       </c>
       <c r="F27" t="n">
-        <v>1675.9903</v>
+        <v>7943.9458</v>
       </c>
       <c r="G27" t="n">
-        <v>278.5333333333334</v>
+        <v>278.4666666666666</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C28" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D28" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E28" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F28" t="n">
-        <v>919.354</v>
+        <v>1675.9903</v>
       </c>
       <c r="G28" t="n">
-        <v>278.6166666666667</v>
+        <v>278.5333333333334</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>279</v>
       </c>
       <c r="F29" t="n">
-        <v>2835.5603</v>
+        <v>919.354</v>
       </c>
       <c r="G29" t="n">
-        <v>278.7</v>
+        <v>278.6166666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C30" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D30" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E30" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F30" t="n">
-        <v>177.65812092</v>
+        <v>2835.5603</v>
       </c>
       <c r="G30" t="n">
-        <v>278.8333333333333</v>
+        <v>278.7</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>281</v>
       </c>
       <c r="C31" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D31" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E31" t="n">
         <v>281</v>
       </c>
       <c r="F31" t="n">
-        <v>60.5126</v>
+        <v>177.65812092</v>
       </c>
       <c r="G31" t="n">
-        <v>278.95</v>
+        <v>278.8333333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>281</v>
       </c>
       <c r="F32" t="n">
-        <v>1816.9445</v>
+        <v>60.5126</v>
       </c>
       <c r="G32" t="n">
-        <v>279.0666666666667</v>
+        <v>278.95</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>281</v>
       </c>
       <c r="F33" t="n">
-        <v>1877.4572</v>
+        <v>1816.9445</v>
       </c>
       <c r="G33" t="n">
-        <v>279.1833333333333</v>
+        <v>279.0666666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,7 +1341,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C34" t="n">
         <v>281</v>
@@ -1249,15 +1350,18 @@
         <v>281</v>
       </c>
       <c r="E34" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F34" t="n">
-        <v>869.1041</v>
+        <v>1877.4572</v>
       </c>
       <c r="G34" t="n">
-        <v>279.2833333333334</v>
+        <v>279.1833333333333</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C35" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D35" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E35" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F35" t="n">
-        <v>16730.03932837</v>
+        <v>869.1041</v>
       </c>
       <c r="G35" t="n">
-        <v>279.4833333333333</v>
+        <v>279.2833333333334</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C36" t="n">
         <v>287</v>
@@ -1301,15 +1408,18 @@
         <v>287</v>
       </c>
       <c r="E36" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F36" t="n">
-        <v>982.2822</v>
+        <v>16730.03932837</v>
       </c>
       <c r="G36" t="n">
-        <v>279.6833333333333</v>
+        <v>279.4833333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C37" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D37" t="n">
         <v>287</v>
       </c>
       <c r="E37" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F37" t="n">
-        <v>4062.9815</v>
+        <v>982.2822</v>
       </c>
       <c r="G37" t="n">
-        <v>279.8666666666667</v>
+        <v>279.6833333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C38" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D38" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E38" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F38" t="n">
-        <v>34.2573</v>
+        <v>4062.9815</v>
       </c>
       <c r="G38" t="n">
-        <v>280.0333333333334</v>
+        <v>279.8666666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>285</v>
       </c>
       <c r="F39" t="n">
-        <v>54.081</v>
+        <v>34.2573</v>
       </c>
       <c r="G39" t="n">
-        <v>280.2</v>
+        <v>280.0333333333334</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>285</v>
       </c>
       <c r="F40" t="n">
-        <v>28.394</v>
+        <v>54.081</v>
       </c>
       <c r="G40" t="n">
-        <v>280.3666666666667</v>
+        <v>280.2</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C41" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D41" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E41" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F41" t="n">
-        <v>800</v>
+        <v>28.394</v>
       </c>
       <c r="G41" t="n">
-        <v>280.5</v>
+        <v>280.3666666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C42" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D42" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E42" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F42" t="n">
-        <v>3280</v>
+        <v>800</v>
       </c>
       <c r="G42" t="n">
-        <v>280.65</v>
+        <v>280.5</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C43" t="n">
         <v>284</v>
       </c>
       <c r="D43" t="n">
+        <v>285</v>
+      </c>
+      <c r="E43" t="n">
         <v>284</v>
       </c>
-      <c r="E43" t="n">
-        <v>283</v>
-      </c>
       <c r="F43" t="n">
-        <v>2043</v>
+        <v>3280</v>
       </c>
       <c r="G43" t="n">
-        <v>280.7833333333334</v>
+        <v>280.65</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1509,15 +1640,18 @@
         <v>284</v>
       </c>
       <c r="E44" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F44" t="n">
-        <v>1455.0708</v>
+        <v>2043</v>
       </c>
       <c r="G44" t="n">
-        <v>280.9166666666667</v>
+        <v>280.7833333333334</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>284</v>
       </c>
       <c r="C45" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D45" t="n">
         <v>284</v>
       </c>
       <c r="E45" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F45" t="n">
-        <v>960</v>
+        <v>1455.0708</v>
       </c>
       <c r="G45" t="n">
-        <v>281.0166666666667</v>
+        <v>280.9166666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,21 +1692,24 @@
         <v>284</v>
       </c>
       <c r="C46" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D46" t="n">
         <v>284</v>
       </c>
       <c r="E46" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F46" t="n">
-        <v>1440</v>
+        <v>960</v>
       </c>
       <c r="G46" t="n">
-        <v>281.1333333333333</v>
+        <v>281.0166666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,21 +1721,24 @@
         <v>284</v>
       </c>
       <c r="C47" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D47" t="n">
         <v>284</v>
       </c>
       <c r="E47" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F47" t="n">
-        <v>1477.1</v>
+        <v>1440</v>
       </c>
       <c r="G47" t="n">
-        <v>281.2333333333333</v>
+        <v>281.1333333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C48" t="n">
         <v>283</v>
       </c>
       <c r="D48" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E48" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F48" t="n">
-        <v>1440</v>
+        <v>1477.1</v>
       </c>
       <c r="G48" t="n">
-        <v>281.3166666666667</v>
+        <v>281.2333333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C49" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D49" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E49" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F49" t="n">
-        <v>24.4187</v>
+        <v>1440</v>
       </c>
       <c r="G49" t="n">
-        <v>281.3833333333333</v>
+        <v>281.3166666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C50" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D50" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E50" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F50" t="n">
-        <v>22.898</v>
+        <v>24.4187</v>
       </c>
       <c r="G50" t="n">
-        <v>281.4666666666666</v>
+        <v>281.3833333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C51" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D51" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E51" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F51" t="n">
-        <v>2953.721</v>
+        <v>22.898</v>
       </c>
       <c r="G51" t="n">
-        <v>281.5833333333333</v>
+        <v>281.4666666666666</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C52" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D52" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E52" t="n">
         <v>284</v>
       </c>
       <c r="F52" t="n">
-        <v>1226.0355</v>
+        <v>2953.721</v>
       </c>
       <c r="G52" t="n">
-        <v>281.65</v>
+        <v>281.5833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1895,24 @@
         <v>285</v>
       </c>
       <c r="C53" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D53" t="n">
         <v>285</v>
       </c>
       <c r="E53" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F53" t="n">
-        <v>286.8785</v>
+        <v>1226.0355</v>
       </c>
       <c r="G53" t="n">
-        <v>281.7166666666666</v>
+        <v>281.65</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C54" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D54" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E54" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F54" t="n">
-        <v>4044.1978</v>
+        <v>286.8785</v>
       </c>
       <c r="G54" t="n">
-        <v>281.7666666666667</v>
+        <v>281.7166666666666</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>284</v>
       </c>
       <c r="F55" t="n">
-        <v>6074.2711</v>
+        <v>4044.1978</v>
       </c>
       <c r="G55" t="n">
-        <v>281.8166666666667</v>
+        <v>281.7666666666667</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>284</v>
       </c>
       <c r="F56" t="n">
-        <v>5473.2059</v>
+        <v>6074.2711</v>
       </c>
       <c r="G56" t="n">
-        <v>281.8833333333333</v>
+        <v>281.8166666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>284</v>
       </c>
       <c r="C57" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D57" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E57" t="n">
         <v>284</v>
       </c>
       <c r="F57" t="n">
-        <v>244</v>
+        <v>5473.2059</v>
       </c>
       <c r="G57" t="n">
-        <v>282</v>
+        <v>281.8833333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>284</v>
       </c>
       <c r="C58" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D58" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E58" t="n">
         <v>284</v>
       </c>
       <c r="F58" t="n">
-        <v>35.926</v>
+        <v>244</v>
       </c>
       <c r="G58" t="n">
-        <v>282.0666666666667</v>
+        <v>282</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C59" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D59" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E59" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F59" t="n">
-        <v>9118.4197</v>
+        <v>35.926</v>
       </c>
       <c r="G59" t="n">
-        <v>282.2166666666666</v>
+        <v>282.0666666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C60" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D60" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E60" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F60" t="n">
-        <v>3834.2234</v>
+        <v>9118.4197</v>
       </c>
       <c r="G60" t="n">
-        <v>282.3333333333333</v>
+        <v>282.2166666666666</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,21 +2127,24 @@
         <v>288</v>
       </c>
       <c r="C61" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D61" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E61" t="n">
         <v>288</v>
       </c>
       <c r="F61" t="n">
-        <v>476</v>
+        <v>3834.2234</v>
       </c>
       <c r="G61" t="n">
-        <v>282.4666666666666</v>
+        <v>282.3333333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>288</v>
+      </c>
+      <c r="C62" t="n">
         <v>289</v>
       </c>
-      <c r="C62" t="n">
-        <v>293</v>
-      </c>
       <c r="D62" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E62" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F62" t="n">
-        <v>14943.388</v>
+        <v>476</v>
       </c>
       <c r="G62" t="n">
-        <v>282.6666666666667</v>
+        <v>282.4666666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>289</v>
+      </c>
+      <c r="C63" t="n">
         <v>293</v>
       </c>
-      <c r="C63" t="n">
-        <v>294</v>
-      </c>
       <c r="D63" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E63" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F63" t="n">
-        <v>13550.5702</v>
+        <v>14943.388</v>
       </c>
       <c r="G63" t="n">
-        <v>282.8666666666667</v>
+        <v>282.6666666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>293</v>
+      </c>
+      <c r="C64" t="n">
+        <v>294</v>
+      </c>
+      <c r="D64" t="n">
         <v>295</v>
       </c>
-      <c r="C64" t="n">
-        <v>296</v>
-      </c>
-      <c r="D64" t="n">
-        <v>296</v>
-      </c>
       <c r="E64" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F64" t="n">
-        <v>4204.5538</v>
+        <v>13550.5702</v>
       </c>
       <c r="G64" t="n">
-        <v>283.1166666666667</v>
+        <v>282.8666666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,7 +2240,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C65" t="n">
         <v>296</v>
@@ -2055,15 +2249,18 @@
         <v>296</v>
       </c>
       <c r="E65" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F65" t="n">
-        <v>8108.8599</v>
+        <v>4204.5538</v>
       </c>
       <c r="G65" t="n">
-        <v>283.3666666666667</v>
+        <v>283.1166666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C66" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D66" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E66" t="n">
         <v>291</v>
       </c>
       <c r="F66" t="n">
-        <v>6824.8148</v>
+        <v>8108.8599</v>
       </c>
       <c r="G66" t="n">
-        <v>283.55</v>
+        <v>283.3666666666667</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C67" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D67" t="n">
         <v>295</v>
       </c>
       <c r="E67" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F67" t="n">
-        <v>1085.6609</v>
+        <v>6824.8148</v>
       </c>
       <c r="G67" t="n">
-        <v>283.7666666666667</v>
+        <v>283.55</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>295</v>
       </c>
       <c r="F68" t="n">
-        <v>623.8187</v>
+        <v>1085.6609</v>
       </c>
       <c r="G68" t="n">
-        <v>283.9833333333333</v>
+        <v>283.7666666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>295</v>
       </c>
       <c r="F69" t="n">
-        <v>12</v>
+        <v>623.8187</v>
       </c>
       <c r="G69" t="n">
-        <v>284.2333333333333</v>
+        <v>283.9833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>295</v>
       </c>
       <c r="F70" t="n">
-        <v>377.0728</v>
+        <v>12</v>
       </c>
       <c r="G70" t="n">
-        <v>284.4833333333333</v>
+        <v>284.2333333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C71" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D71" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E71" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F71" t="n">
-        <v>387.3717</v>
+        <v>377.0728</v>
       </c>
       <c r="G71" t="n">
-        <v>284.65</v>
+        <v>284.4833333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>293</v>
       </c>
       <c r="C72" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D72" t="n">
         <v>293</v>
       </c>
       <c r="E72" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F72" t="n">
-        <v>26</v>
+        <v>387.3717</v>
       </c>
       <c r="G72" t="n">
-        <v>284.8666666666667</v>
+        <v>284.65</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>293</v>
       </c>
       <c r="F73" t="n">
-        <v>197.6714</v>
+        <v>26</v>
       </c>
       <c r="G73" t="n">
-        <v>285.05</v>
+        <v>284.8666666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>293</v>
       </c>
       <c r="F74" t="n">
-        <v>342.175</v>
+        <v>197.6714</v>
       </c>
       <c r="G74" t="n">
-        <v>285.2166666666666</v>
+        <v>285.05</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2312,18 +2536,21 @@
         <v>293</v>
       </c>
       <c r="D75" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E75" t="n">
         <v>293</v>
       </c>
       <c r="F75" t="n">
-        <v>524.7966</v>
+        <v>342.175</v>
       </c>
       <c r="G75" t="n">
-        <v>285.4166666666667</v>
+        <v>285.2166666666666</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,7 +2562,7 @@
         <v>293</v>
       </c>
       <c r="C76" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D76" t="n">
         <v>295</v>
@@ -2344,12 +2571,15 @@
         <v>293</v>
       </c>
       <c r="F76" t="n">
-        <v>1276.1657</v>
+        <v>524.7966</v>
       </c>
       <c r="G76" t="n">
-        <v>285.6666666666667</v>
+        <v>285.4166666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>293</v>
+      </c>
+      <c r="C77" t="n">
         <v>295</v>
-      </c>
-      <c r="C77" t="n">
-        <v>292</v>
       </c>
       <c r="D77" t="n">
         <v>295</v>
       </c>
       <c r="E77" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F77" t="n">
-        <v>1977.5593</v>
+        <v>1276.1657</v>
       </c>
       <c r="G77" t="n">
-        <v>285.8666666666667</v>
+        <v>285.6666666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C78" t="n">
         <v>292</v>
       </c>
       <c r="D78" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E78" t="n">
         <v>292</v>
       </c>
       <c r="F78" t="n">
-        <v>6059.0854</v>
+        <v>1977.5593</v>
       </c>
       <c r="G78" t="n">
-        <v>286.0666666666667</v>
+        <v>285.8666666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>292</v>
       </c>
       <c r="F79" t="n">
-        <v>7585.7944</v>
+        <v>6059.0854</v>
       </c>
       <c r="G79" t="n">
-        <v>286.2</v>
+        <v>286.0666666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,21 +2678,24 @@
         <v>292</v>
       </c>
       <c r="C80" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D80" t="n">
         <v>292</v>
       </c>
       <c r="E80" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F80" t="n">
-        <v>5894.3123</v>
+        <v>7585.7944</v>
       </c>
       <c r="G80" t="n">
-        <v>286.4</v>
+        <v>286.2</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C81" t="n">
         <v>291</v>
       </c>
       <c r="D81" t="n">
+        <v>292</v>
+      </c>
+      <c r="E81" t="n">
         <v>291</v>
       </c>
-      <c r="E81" t="n">
-        <v>290</v>
-      </c>
       <c r="F81" t="n">
-        <v>1438.1786103</v>
+        <v>5894.3123</v>
       </c>
       <c r="G81" t="n">
-        <v>286.6</v>
+        <v>286.4</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C82" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D82" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E82" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F82" t="n">
-        <v>5703.2624</v>
+        <v>1438.1786103</v>
       </c>
       <c r="G82" t="n">
-        <v>286.75</v>
+        <v>286.6</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F83" t="n">
-        <v>565.8486</v>
+        <v>5703.2624</v>
       </c>
       <c r="G83" t="n">
-        <v>286.9333333333333</v>
+        <v>286.75</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F84" t="n">
-        <v>325.2332</v>
+        <v>565.8486</v>
       </c>
       <c r="G84" t="n">
-        <v>287.0666666666667</v>
+        <v>286.9333333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2572,18 +2826,21 @@
         <v>287</v>
       </c>
       <c r="D85" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E85" t="n">
         <v>287</v>
       </c>
       <c r="F85" t="n">
-        <v>410.1822</v>
+        <v>325.2332</v>
       </c>
       <c r="G85" t="n">
-        <v>287.2</v>
+        <v>287.0666666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C86" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D86" t="n">
         <v>288</v>
       </c>
       <c r="E86" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F86" t="n">
-        <v>426.335</v>
+        <v>410.1822</v>
       </c>
       <c r="G86" t="n">
-        <v>287.3666666666667</v>
+        <v>287.2</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C87" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D87" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E87" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F87" t="n">
-        <v>1576.5758</v>
+        <v>426.335</v>
       </c>
       <c r="G87" t="n">
-        <v>287.5666666666667</v>
+        <v>287.3666666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,7 +2907,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C88" t="n">
         <v>290</v>
@@ -2653,15 +2916,18 @@
         <v>290</v>
       </c>
       <c r="E88" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F88" t="n">
-        <v>1268.2965</v>
+        <v>1576.5758</v>
       </c>
       <c r="G88" t="n">
-        <v>287.75</v>
+        <v>287.5666666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C89" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D89" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E89" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F89" t="n">
-        <v>147.4644</v>
+        <v>1268.2965</v>
       </c>
       <c r="G89" t="n">
-        <v>287.9166666666667</v>
+        <v>287.75</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>289</v>
       </c>
       <c r="F90" t="n">
-        <v>231.9856</v>
+        <v>147.4644</v>
       </c>
       <c r="G90" t="n">
-        <v>288.0333333333334</v>
+        <v>287.9166666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>289</v>
       </c>
       <c r="F91" t="n">
-        <v>881.1942</v>
+        <v>231.9856</v>
       </c>
       <c r="G91" t="n">
-        <v>288.1666666666667</v>
+        <v>288.0333333333334</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>289</v>
       </c>
       <c r="F92" t="n">
-        <v>396.4492</v>
+        <v>881.1942</v>
       </c>
       <c r="G92" t="n">
-        <v>288.3</v>
+        <v>288.1666666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C93" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D93" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E93" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F93" t="n">
-        <v>5668.8077</v>
+        <v>396.4492</v>
       </c>
       <c r="G93" t="n">
-        <v>288.4</v>
+        <v>288.3</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C94" t="n">
         <v>287</v>
       </c>
       <c r="D94" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E94" t="n">
         <v>287</v>
       </c>
       <c r="F94" t="n">
-        <v>278.4886</v>
+        <v>5668.8077</v>
       </c>
       <c r="G94" t="n">
-        <v>288.5</v>
+        <v>288.4</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>287</v>
       </c>
       <c r="F95" t="n">
-        <v>26.8397</v>
+        <v>278.4886</v>
       </c>
       <c r="G95" t="n">
         <v>288.5</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>287</v>
       </c>
       <c r="F96" t="n">
-        <v>638.1707</v>
+        <v>26.8397</v>
       </c>
       <c r="G96" t="n">
         <v>288.5</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>287</v>
       </c>
       <c r="F97" t="n">
-        <v>17403.8136</v>
+        <v>638.1707</v>
       </c>
       <c r="G97" t="n">
-        <v>288.5166666666667</v>
+        <v>288.5</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C98" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D98" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E98" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F98" t="n">
-        <v>36.2599</v>
+        <v>17403.8136</v>
       </c>
       <c r="G98" t="n">
-        <v>288.5666666666667</v>
+        <v>288.5166666666667</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C99" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D99" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E99" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F99" t="n">
-        <v>338.9103</v>
+        <v>36.2599</v>
       </c>
       <c r="G99" t="n">
-        <v>288.65</v>
+        <v>288.5666666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C100" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D100" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E100" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F100" t="n">
-        <v>26</v>
+        <v>338.9103</v>
       </c>
       <c r="G100" t="n">
-        <v>288.7</v>
+        <v>288.65</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C101" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D101" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E101" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G101" t="n">
-        <v>288.8166666666667</v>
+        <v>288.7</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,21 +3316,24 @@
         <v>290</v>
       </c>
       <c r="C102" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D102" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E102" t="n">
         <v>290</v>
       </c>
       <c r="F102" t="n">
-        <v>3034.60231152</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>289</v>
+        <v>288.8166666666667</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>290</v>
+      </c>
+      <c r="C103" t="n">
         <v>295</v>
       </c>
-      <c r="C103" t="n">
-        <v>296</v>
-      </c>
       <c r="D103" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E103" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F103" t="n">
-        <v>3013.48920435</v>
+        <v>3034.60231152</v>
       </c>
       <c r="G103" t="n">
-        <v>289.2</v>
+        <v>289</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>295</v>
+      </c>
+      <c r="C104" t="n">
         <v>296</v>
       </c>
-      <c r="C104" t="n">
-        <v>300</v>
-      </c>
       <c r="D104" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E104" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F104" t="n">
-        <v>18505.97708346</v>
+        <v>3013.48920435</v>
       </c>
       <c r="G104" t="n">
-        <v>289.4666666666666</v>
+        <v>289.2</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>296</v>
+      </c>
+      <c r="C105" t="n">
         <v>300</v>
       </c>
-      <c r="C105" t="n">
-        <v>305</v>
-      </c>
       <c r="D105" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E105" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F105" t="n">
-        <v>55898.47012898</v>
+        <v>18505.97708346</v>
       </c>
       <c r="G105" t="n">
-        <v>289.8333333333333</v>
+        <v>289.4666666666666</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>300</v>
+      </c>
+      <c r="C106" t="n">
         <v>305</v>
       </c>
-      <c r="C106" t="n">
-        <v>309</v>
-      </c>
       <c r="D106" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E106" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F106" t="n">
-        <v>11486.2389</v>
+        <v>55898.47012898</v>
       </c>
       <c r="G106" t="n">
-        <v>290.25</v>
+        <v>289.8333333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C107" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D107" t="n">
         <v>310</v>
       </c>
       <c r="E107" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F107" t="n">
-        <v>2039.7047</v>
+        <v>11486.2389</v>
       </c>
       <c r="G107" t="n">
-        <v>290.6666666666667</v>
+        <v>290.25</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,10 +3487,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>310</v>
+      </c>
+      <c r="C108" t="n">
         <v>308</v>
-      </c>
-      <c r="C108" t="n">
-        <v>310</v>
       </c>
       <c r="D108" t="n">
         <v>310</v>
@@ -3176,12 +3499,15 @@
         <v>307</v>
       </c>
       <c r="F108" t="n">
-        <v>3753.54600806</v>
+        <v>2039.7047</v>
       </c>
       <c r="G108" t="n">
-        <v>291.1166666666667</v>
+        <v>290.6666666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>308</v>
+      </c>
+      <c r="C109" t="n">
         <v>310</v>
       </c>
-      <c r="C109" t="n">
-        <v>315</v>
-      </c>
       <c r="D109" t="n">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E109" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F109" t="n">
-        <v>28984.20794961</v>
+        <v>3753.54600806</v>
       </c>
       <c r="G109" t="n">
-        <v>291.6666666666667</v>
+        <v>291.1166666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>310</v>
+      </c>
+      <c r="C110" t="n">
         <v>315</v>
       </c>
-      <c r="C110" t="n">
-        <v>319</v>
-      </c>
       <c r="D110" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E110" t="n">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F110" t="n">
-        <v>9758.80514233</v>
+        <v>28984.20794961</v>
       </c>
       <c r="G110" t="n">
-        <v>292.2333333333333</v>
+        <v>291.6666666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C111" t="n">
         <v>319</v>
       </c>
       <c r="D111" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E111" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F111" t="n">
-        <v>12047.21317868</v>
+        <v>9758.80514233</v>
       </c>
       <c r="G111" t="n">
-        <v>292.7666666666667</v>
+        <v>292.2333333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,25 +3603,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C112" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D112" t="n">
+        <v>321</v>
+      </c>
+      <c r="E112" t="n">
         <v>319</v>
       </c>
-      <c r="E112" t="n">
-        <v>315</v>
-      </c>
       <c r="F112" t="n">
-        <v>13588.88688495</v>
+        <v>12047.21317868</v>
       </c>
       <c r="G112" t="n">
-        <v>293.3333333333333</v>
+        <v>292.7666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3294,25 +3632,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C113" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D113" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E113" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F113" t="n">
-        <v>358.9361</v>
+        <v>13588.88688495</v>
       </c>
       <c r="G113" t="n">
-        <v>293.8</v>
+        <v>293.3333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C114" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D114" t="n">
         <v>317</v>
       </c>
       <c r="E114" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F114" t="n">
-        <v>8830.792600000001</v>
+        <v>358.9361</v>
       </c>
       <c r="G114" t="n">
-        <v>294.3333333333333</v>
+        <v>293.8</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C115" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D115" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E115" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F115" t="n">
-        <v>1030.1332</v>
+        <v>8830.792600000001</v>
       </c>
       <c r="G115" t="n">
-        <v>294.7666666666667</v>
+        <v>294.3333333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C116" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D116" t="n">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E116" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F116" t="n">
-        <v>334.4477</v>
+        <v>1030.1332</v>
       </c>
       <c r="G116" t="n">
-        <v>295.1333333333333</v>
+        <v>294.7666666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C117" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D117" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E117" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F117" t="n">
-        <v>17627.2079</v>
+        <v>334.4477</v>
       </c>
       <c r="G117" t="n">
-        <v>295.4333333333333</v>
+        <v>295.1333333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C118" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D118" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E118" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F118" t="n">
-        <v>3966.3546</v>
+        <v>17627.2079</v>
       </c>
       <c r="G118" t="n">
-        <v>295.8666666666667</v>
+        <v>295.4333333333333</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C119" t="n">
         <v>310</v>
       </c>
       <c r="D119" t="n">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E119" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F119" t="n">
-        <v>7699.6774</v>
+        <v>3966.3546</v>
       </c>
       <c r="G119" t="n">
-        <v>296.2166666666666</v>
+        <v>295.8666666666667</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,21 +3838,24 @@
         <v>310</v>
       </c>
       <c r="C120" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D120" t="n">
+        <v>315</v>
+      </c>
+      <c r="E120" t="n">
         <v>310</v>
       </c>
-      <c r="E120" t="n">
-        <v>307</v>
-      </c>
       <c r="F120" t="n">
-        <v>1828.4134</v>
+        <v>7699.6774</v>
       </c>
       <c r="G120" t="n">
-        <v>296.5333333333334</v>
+        <v>296.2166666666666</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>310</v>
+      </c>
+      <c r="C121" t="n">
         <v>307</v>
       </c>
-      <c r="C121" t="n">
-        <v>300</v>
-      </c>
       <c r="D121" t="n">
+        <v>310</v>
+      </c>
+      <c r="E121" t="n">
         <v>307</v>
       </c>
-      <c r="E121" t="n">
-        <v>300</v>
-      </c>
       <c r="F121" t="n">
-        <v>2390.0935</v>
+        <v>1828.4134</v>
       </c>
       <c r="G121" t="n">
-        <v>296.7166666666666</v>
+        <v>296.5333333333334</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C122" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D122" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E122" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F122" t="n">
-        <v>10.3346</v>
+        <v>2390.0935</v>
       </c>
       <c r="G122" t="n">
-        <v>296.8833333333333</v>
+        <v>296.7166666666666</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C123" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D123" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E123" t="n">
         <v>302</v>
       </c>
       <c r="F123" t="n">
-        <v>10.8743</v>
+        <v>10.3346</v>
       </c>
       <c r="G123" t="n">
-        <v>297.1</v>
+        <v>296.8833333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>302</v>
+      </c>
+      <c r="C124" t="n">
         <v>307</v>
       </c>
-      <c r="C124" t="n">
-        <v>310</v>
-      </c>
       <c r="D124" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E124" t="n">
         <v>302</v>
       </c>
       <c r="F124" t="n">
-        <v>1619.33</v>
+        <v>10.8743</v>
       </c>
       <c r="G124" t="n">
-        <v>297.3333333333333</v>
+        <v>297.1</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,7 +3980,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C125" t="n">
         <v>310</v>
@@ -3615,15 +3989,18 @@
         <v>310</v>
       </c>
       <c r="E125" t="n">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F125" t="n">
-        <v>619.7018</v>
+        <v>1619.33</v>
       </c>
       <c r="G125" t="n">
-        <v>297.5666666666667</v>
+        <v>297.3333333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C126" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D126" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E126" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F126" t="n">
-        <v>4697.7738</v>
+        <v>619.7018</v>
       </c>
       <c r="G126" t="n">
-        <v>297.7166666666666</v>
+        <v>297.5666666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C127" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D127" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E127" t="n">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F127" t="n">
-        <v>1134.1213</v>
+        <v>4697.7738</v>
       </c>
       <c r="G127" t="n">
-        <v>297.9666666666666</v>
+        <v>297.7166666666666</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>308</v>
+      </c>
+      <c r="C128" t="n">
         <v>310</v>
       </c>
-      <c r="C128" t="n">
-        <v>316</v>
-      </c>
       <c r="D128" t="n">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E128" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F128" t="n">
-        <v>4367.84692151</v>
+        <v>1134.1213</v>
       </c>
       <c r="G128" t="n">
-        <v>298.3166666666667</v>
+        <v>297.9666666666666</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C129" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D129" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E129" t="n">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F129" t="n">
-        <v>2725.8598</v>
+        <v>4367.84692151</v>
       </c>
       <c r="G129" t="n">
-        <v>298.6333333333333</v>
+        <v>298.3166666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3739,21 +4128,24 @@
         <v>314</v>
       </c>
       <c r="C130" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D130" t="n">
         <v>314</v>
       </c>
       <c r="E130" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F130" t="n">
-        <v>203.7656</v>
+        <v>2725.8598</v>
       </c>
       <c r="G130" t="n">
-        <v>298.9333333333333</v>
+        <v>298.6333333333333</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>314</v>
+      </c>
+      <c r="C131" t="n">
         <v>313</v>
       </c>
-      <c r="C131" t="n">
-        <v>307</v>
-      </c>
       <c r="D131" t="n">
+        <v>314</v>
+      </c>
+      <c r="E131" t="n">
         <v>313</v>
       </c>
-      <c r="E131" t="n">
-        <v>307</v>
-      </c>
       <c r="F131" t="n">
-        <v>3166.4516</v>
+        <v>203.7656</v>
       </c>
       <c r="G131" t="n">
-        <v>299.1833333333333</v>
+        <v>298.9333333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C132" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D132" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E132" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F132" t="n">
-        <v>1124.7454</v>
+        <v>3166.4516</v>
       </c>
       <c r="G132" t="n">
-        <v>299.4333333333333</v>
+        <v>299.1833333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C133" t="n">
         <v>308</v>
       </c>
       <c r="D133" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E133" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F133" t="n">
-        <v>1705.8998</v>
+        <v>1124.7454</v>
       </c>
       <c r="G133" t="n">
-        <v>299.6833333333333</v>
+        <v>299.4333333333333</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C134" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D134" t="n">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E134" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F134" t="n">
-        <v>11237.186</v>
+        <v>1705.8998</v>
       </c>
       <c r="G134" t="n">
-        <v>299.85</v>
+        <v>299.6833333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3872,18 +4276,21 @@
         <v>303</v>
       </c>
       <c r="D135" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E135" t="n">
         <v>303</v>
       </c>
       <c r="F135" t="n">
-        <v>3001.6254</v>
+        <v>11237.186</v>
       </c>
       <c r="G135" t="n">
-        <v>300.0166666666667</v>
+        <v>299.85</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,21 +4302,24 @@
         <v>303</v>
       </c>
       <c r="C136" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D136" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E136" t="n">
         <v>303</v>
       </c>
       <c r="F136" t="n">
-        <v>435.17</v>
+        <v>3001.6254</v>
       </c>
       <c r="G136" t="n">
-        <v>300.2166666666666</v>
+        <v>300.0166666666667</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C137" t="n">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D137" t="n">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E137" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F137" t="n">
-        <v>4858.0738</v>
+        <v>435.17</v>
       </c>
       <c r="G137" t="n">
-        <v>300.55</v>
+        <v>300.2166666666666</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>308</v>
+      </c>
+      <c r="C138" t="n">
         <v>312</v>
       </c>
-      <c r="C138" t="n">
-        <v>313</v>
-      </c>
       <c r="D138" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E138" t="n">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F138" t="n">
-        <v>2713.586</v>
+        <v>4858.0738</v>
       </c>
       <c r="G138" t="n">
-        <v>300.9</v>
+        <v>300.55</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C139" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D139" t="n">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E139" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F139" t="n">
-        <v>8562.179</v>
+        <v>2713.586</v>
       </c>
       <c r="G139" t="n">
-        <v>301.3</v>
+        <v>300.9</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C140" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D140" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E140" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F140" t="n">
-        <v>5916.8279</v>
+        <v>8562.179</v>
       </c>
       <c r="G140" t="n">
-        <v>301.6666666666667</v>
+        <v>301.3</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C141" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D141" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E141" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F141" t="n">
-        <v>784.3275</v>
+        <v>5916.8279</v>
       </c>
       <c r="G141" t="n">
-        <v>302.0833333333333</v>
+        <v>301.6666666666667</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C142" t="n">
         <v>316</v>
       </c>
       <c r="D142" t="n">
+        <v>317</v>
+      </c>
+      <c r="E142" t="n">
         <v>316</v>
       </c>
-      <c r="E142" t="n">
-        <v>315</v>
-      </c>
       <c r="F142" t="n">
-        <v>418.9612</v>
+        <v>784.3275</v>
       </c>
       <c r="G142" t="n">
-        <v>302.5666666666667</v>
+        <v>302.0833333333333</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>315</v>
+      </c>
+      <c r="C143" t="n">
         <v>316</v>
       </c>
-      <c r="C143" t="n">
-        <v>318</v>
-      </c>
       <c r="D143" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E143" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F143" t="n">
-        <v>9528.98907849</v>
+        <v>418.9612</v>
       </c>
       <c r="G143" t="n">
-        <v>303.05</v>
+        <v>302.5666666666667</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>316</v>
+      </c>
+      <c r="C144" t="n">
         <v>318</v>
       </c>
-      <c r="C144" t="n">
-        <v>320</v>
-      </c>
       <c r="D144" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E144" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F144" t="n">
-        <v>1725.7651</v>
+        <v>9528.98907849</v>
       </c>
       <c r="G144" t="n">
-        <v>303.6</v>
+        <v>303.05</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4129,21 +4563,24 @@
         <v>318</v>
       </c>
       <c r="C145" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D145" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E145" t="n">
         <v>318</v>
       </c>
       <c r="F145" t="n">
-        <v>2418.5097</v>
+        <v>1725.7651</v>
       </c>
       <c r="G145" t="n">
-        <v>304.1166666666667</v>
+        <v>303.6</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C146" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D146" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E146" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F146" t="n">
-        <v>3995.9559</v>
+        <v>2418.5097</v>
       </c>
       <c r="G146" t="n">
-        <v>304.5833333333333</v>
+        <v>304.1166666666667</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C147" t="n">
         <v>316</v>
       </c>
       <c r="D147" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E147" t="n">
         <v>316</v>
       </c>
       <c r="F147" t="n">
-        <v>1259.6626</v>
+        <v>3995.9559</v>
       </c>
       <c r="G147" t="n">
-        <v>305.0166666666667</v>
+        <v>304.5833333333333</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4207,21 +4650,24 @@
         <v>316</v>
       </c>
       <c r="C148" t="n">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D148" t="n">
         <v>316</v>
       </c>
       <c r="E148" t="n">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F148" t="n">
-        <v>8674.8514</v>
+        <v>1259.6626</v>
       </c>
       <c r="G148" t="n">
-        <v>305.3666666666667</v>
+        <v>305.0166666666667</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C149" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D149" t="n">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E149" t="n">
         <v>311</v>
       </c>
       <c r="F149" t="n">
-        <v>1756.7649</v>
+        <v>8674.8514</v>
       </c>
       <c r="G149" t="n">
-        <v>305.75</v>
+        <v>305.3666666666667</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4265,15 +4714,18 @@
         <v>312</v>
       </c>
       <c r="E150" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F150" t="n">
-        <v>8338.769</v>
+        <v>1756.7649</v>
       </c>
       <c r="G150" t="n">
-        <v>306.1333333333333</v>
+        <v>305.75</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C151" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D151" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E151" t="n">
         <v>312</v>
       </c>
       <c r="F151" t="n">
-        <v>2054.7905</v>
+        <v>8338.769</v>
       </c>
       <c r="G151" t="n">
-        <v>306.5666666666667</v>
+        <v>306.1333333333333</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C152" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D152" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E152" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F152" t="n">
-        <v>1893.018</v>
+        <v>2054.7905</v>
       </c>
       <c r="G152" t="n">
-        <v>306.9333333333333</v>
+        <v>306.5666666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C153" t="n">
         <v>311</v>
       </c>
       <c r="D153" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E153" t="n">
         <v>311</v>
       </c>
       <c r="F153" t="n">
-        <v>1431.8346</v>
+        <v>1893.018</v>
       </c>
       <c r="G153" t="n">
-        <v>307.3333333333333</v>
+        <v>306.9333333333333</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>312</v>
+      </c>
+      <c r="C154" t="n">
         <v>311</v>
       </c>
-      <c r="C154" t="n">
-        <v>319</v>
-      </c>
       <c r="D154" t="n">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E154" t="n">
         <v>311</v>
       </c>
       <c r="F154" t="n">
-        <v>4814.26473949</v>
+        <v>1431.8346</v>
       </c>
       <c r="G154" t="n">
-        <v>307.8666666666667</v>
+        <v>307.3333333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C155" t="n">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D155" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E155" t="n">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F155" t="n">
-        <v>21.9725</v>
+        <v>4814.26473949</v>
       </c>
       <c r="G155" t="n">
-        <v>308.3166666666667</v>
+        <v>307.8666666666667</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>317</v>
+      </c>
+      <c r="C156" t="n">
         <v>314</v>
       </c>
-      <c r="C156" t="n">
-        <v>310</v>
-      </c>
       <c r="D156" t="n">
+        <v>317</v>
+      </c>
+      <c r="E156" t="n">
         <v>314</v>
       </c>
-      <c r="E156" t="n">
-        <v>310</v>
-      </c>
       <c r="F156" t="n">
-        <v>20691.6627</v>
+        <v>21.9725</v>
       </c>
       <c r="G156" t="n">
-        <v>308.7</v>
+        <v>308.3166666666667</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C157" t="n">
         <v>310</v>
       </c>
       <c r="D157" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E157" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F157" t="n">
-        <v>43</v>
+        <v>20691.6627</v>
       </c>
       <c r="G157" t="n">
-        <v>309.0833333333333</v>
+        <v>308.7</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C158" t="n">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D158" t="n">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E158" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F158" t="n">
-        <v>8892.037892779999</v>
+        <v>43</v>
       </c>
       <c r="G158" t="n">
-        <v>309.6</v>
+        <v>309.0833333333333</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C159" t="n">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="D159" t="n">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E159" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F159" t="n">
-        <v>2166.8408</v>
+        <v>8892.037892779999</v>
       </c>
       <c r="G159" t="n">
-        <v>309.9</v>
+        <v>309.6</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C160" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D160" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E160" t="n">
         <v>308</v>
       </c>
       <c r="F160" t="n">
-        <v>1603.3992</v>
+        <v>2166.8408</v>
       </c>
       <c r="G160" t="n">
-        <v>310.2833333333334</v>
+        <v>309.9</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4545,21 +5027,24 @@
         <v>311</v>
       </c>
       <c r="C161" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D161" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E161" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F161" t="n">
-        <v>147.13116134</v>
+        <v>1603.3992</v>
       </c>
       <c r="G161" t="n">
-        <v>310.6666666666667</v>
+        <v>310.2833333333334</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>311</v>
+      </c>
+      <c r="C162" t="n">
         <v>313</v>
       </c>
-      <c r="C162" t="n">
-        <v>318</v>
-      </c>
       <c r="D162" t="n">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E162" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" t="n">
-        <v>4532.24421476</v>
+        <v>147.13116134</v>
       </c>
       <c r="G162" t="n">
-        <v>311.05</v>
+        <v>310.6666666666667</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C163" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D163" t="n">
         <v>318</v>
       </c>
       <c r="E163" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F163" t="n">
-        <v>1597.562</v>
+        <v>4532.24421476</v>
       </c>
       <c r="G163" t="n">
-        <v>311.4</v>
+        <v>311.05</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4623,21 +5114,24 @@
         <v>316</v>
       </c>
       <c r="C164" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D164" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E164" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F164" t="n">
-        <v>53.6761</v>
+        <v>1597.562</v>
       </c>
       <c r="G164" t="n">
-        <v>311.6666666666667</v>
+        <v>311.4</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,7 +5140,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C165" t="n">
         <v>316</v>
@@ -4655,15 +5149,18 @@
         <v>316</v>
       </c>
       <c r="E165" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F165" t="n">
-        <v>680.8425</v>
+        <v>53.6761</v>
       </c>
       <c r="G165" t="n">
-        <v>311.85</v>
+        <v>311.6666666666667</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,7 +5169,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C166" t="n">
         <v>316</v>
@@ -4684,12 +5181,15 @@
         <v>314</v>
       </c>
       <c r="F166" t="n">
-        <v>4791.1088</v>
+        <v>680.8425</v>
       </c>
       <c r="G166" t="n">
-        <v>311.9666666666666</v>
+        <v>311.85</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4707,15 +5207,18 @@
         <v>316</v>
       </c>
       <c r="E167" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F167" t="n">
-        <v>80</v>
+        <v>4791.1088</v>
       </c>
       <c r="G167" t="n">
-        <v>312.1</v>
+        <v>311.9666666666666</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4727,21 +5230,24 @@
         <v>316</v>
       </c>
       <c r="C168" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D168" t="n">
         <v>316</v>
       </c>
       <c r="E168" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F168" t="n">
-        <v>1337.8771</v>
+        <v>80</v>
       </c>
       <c r="G168" t="n">
-        <v>312.1666666666667</v>
+        <v>312.1</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C169" t="n">
         <v>314</v>
       </c>
       <c r="D169" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E169" t="n">
         <v>314</v>
       </c>
       <c r="F169" t="n">
-        <v>612.8881</v>
+        <v>1337.8771</v>
       </c>
       <c r="G169" t="n">
-        <v>312.15</v>
+        <v>312.1666666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C170" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D170" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E170" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F170" t="n">
-        <v>874.1676</v>
+        <v>612.8881</v>
       </c>
       <c r="G170" t="n">
-        <v>312</v>
+        <v>312.15</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>311</v>
+      </c>
+      <c r="C171" t="n">
         <v>310</v>
       </c>
-      <c r="C171" t="n">
-        <v>307</v>
-      </c>
       <c r="D171" t="n">
+        <v>311</v>
+      </c>
+      <c r="E171" t="n">
         <v>310</v>
       </c>
-      <c r="E171" t="n">
-        <v>307</v>
-      </c>
       <c r="F171" t="n">
-        <v>15309.9249</v>
+        <v>874.1676</v>
       </c>
       <c r="G171" t="n">
-        <v>311.8</v>
+        <v>312</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C172" t="n">
         <v>307</v>
       </c>
       <c r="D172" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E172" t="n">
         <v>307</v>
       </c>
       <c r="F172" t="n">
-        <v>719.4442</v>
+        <v>15309.9249</v>
       </c>
       <c r="G172" t="n">
-        <v>311.6166666666667</v>
+        <v>311.8</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C173" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D173" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E173" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F173" t="n">
-        <v>859.3279</v>
+        <v>719.4442</v>
       </c>
       <c r="G173" t="n">
-        <v>311.4833333333333</v>
+        <v>311.6166666666667</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C174" t="n">
         <v>305</v>
       </c>
       <c r="D174" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E174" t="n">
         <v>305</v>
       </c>
       <c r="F174" t="n">
-        <v>328.1493</v>
+        <v>859.3279</v>
       </c>
       <c r="G174" t="n">
-        <v>311.3</v>
+        <v>311.4833333333333</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C175" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D175" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E175" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F175" t="n">
-        <v>68.1854</v>
+        <v>328.1493</v>
       </c>
       <c r="G175" t="n">
         <v>311.3</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4944,12 +5471,15 @@
         <v>310</v>
       </c>
       <c r="F176" t="n">
-        <v>53.1723</v>
+        <v>68.1854</v>
       </c>
       <c r="G176" t="n">
-        <v>311.3666666666667</v>
+        <v>311.3</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C177" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D177" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E177" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F177" t="n">
-        <v>9.807</v>
+        <v>53.1723</v>
       </c>
       <c r="G177" t="n">
-        <v>311.4666666666666</v>
+        <v>311.3666666666667</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C178" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D178" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E178" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6423</v>
+        <v>9.807</v>
       </c>
       <c r="G178" t="n">
         <v>311.4666666666666</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C179" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D179" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E179" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F179" t="n">
-        <v>128</v>
+        <v>0.6423</v>
       </c>
       <c r="G179" t="n">
-        <v>311.4333333333333</v>
+        <v>311.4666666666666</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C180" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D180" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E180" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F180" t="n">
-        <v>49.2327</v>
+        <v>128</v>
       </c>
       <c r="G180" t="n">
-        <v>311.4833333333333</v>
+        <v>311.4333333333333</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5065,21 +5607,24 @@
         <v>310</v>
       </c>
       <c r="C181" t="n">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D181" t="n">
         <v>310</v>
       </c>
       <c r="E181" t="n">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F181" t="n">
-        <v>29805.6559</v>
+        <v>49.2327</v>
       </c>
       <c r="G181" t="n">
-        <v>311.5</v>
+        <v>311.4833333333333</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C182" t="n">
         <v>301</v>
       </c>
       <c r="D182" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E182" t="n">
         <v>301</v>
       </c>
       <c r="F182" t="n">
-        <v>4502.0092</v>
+        <v>29805.6559</v>
       </c>
       <c r="G182" t="n">
-        <v>311.4666666666666</v>
+        <v>311.5</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5117,21 +5665,24 @@
         <v>302</v>
       </c>
       <c r="C183" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D183" t="n">
         <v>302</v>
       </c>
       <c r="E183" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F183" t="n">
-        <v>7133.5896</v>
+        <v>4502.0092</v>
       </c>
       <c r="G183" t="n">
-        <v>311.3833333333333</v>
+        <v>311.4666666666666</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C184" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D184" t="n">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E184" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F184" t="n">
-        <v>15089.3803</v>
+        <v>7133.5896</v>
       </c>
       <c r="G184" t="n">
-        <v>311.2333333333333</v>
+        <v>311.3833333333333</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5169,21 +5723,24 @@
         <v>301</v>
       </c>
       <c r="C185" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D185" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E185" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F185" t="n">
-        <v>5764.8203</v>
+        <v>15089.3803</v>
       </c>
       <c r="G185" t="n">
-        <v>311.1166666666667</v>
+        <v>311.2333333333333</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>301</v>
+      </c>
+      <c r="C186" t="n">
         <v>303</v>
       </c>
-      <c r="C186" t="n">
-        <v>310</v>
-      </c>
       <c r="D186" t="n">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E186" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F186" t="n">
-        <v>3386.3906</v>
+        <v>5764.8203</v>
       </c>
       <c r="G186" t="n">
-        <v>311.2833333333334</v>
+        <v>311.1166666666667</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,7 +5778,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C187" t="n">
         <v>310</v>
@@ -5227,15 +5787,18 @@
         <v>310</v>
       </c>
       <c r="E187" t="n">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F187" t="n">
-        <v>2721.4426</v>
+        <v>3386.3906</v>
       </c>
       <c r="G187" t="n">
         <v>311.2833333333334</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5256,12 +5819,15 @@
         <v>310</v>
       </c>
       <c r="F188" t="n">
-        <v>2068.4329</v>
+        <v>2721.4426</v>
       </c>
       <c r="G188" t="n">
-        <v>311.1833333333333</v>
+        <v>311.2833333333334</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C189" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D189" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E189" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F189" t="n">
-        <v>498.776</v>
+        <v>2068.4329</v>
       </c>
       <c r="G189" t="n">
-        <v>311.05</v>
+        <v>311.1833333333333</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5308,12 +5877,15 @@
         <v>306</v>
       </c>
       <c r="F190" t="n">
-        <v>2289.9803</v>
+        <v>498.776</v>
       </c>
       <c r="G190" t="n">
-        <v>310.9333333333333</v>
+        <v>311.05</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C191" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D191" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E191" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F191" t="n">
-        <v>3</v>
+        <v>2289.9803</v>
       </c>
       <c r="G191" t="n">
-        <v>310.9666666666666</v>
+        <v>310.9333333333333</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5351,21 +5926,24 @@
         <v>309</v>
       </c>
       <c r="C192" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D192" t="n">
         <v>309</v>
       </c>
       <c r="E192" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F192" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G192" t="n">
-        <v>310.9333333333333</v>
+        <v>310.9666666666666</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C193" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D193" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E193" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F193" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="G193" t="n">
-        <v>310.8666666666667</v>
+        <v>310.9333333333333</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C194" t="n">
         <v>304</v>
       </c>
       <c r="D194" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E194" t="n">
         <v>304</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G194" t="n">
-        <v>310.8833333333333</v>
+        <v>310.8666666666667</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C195" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D195" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E195" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F195" t="n">
-        <v>974.0259</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>310.9666666666666</v>
+        <v>310.8833333333333</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C196" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D196" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E196" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F196" t="n">
-        <v>5</v>
+        <v>974.0259</v>
       </c>
       <c r="G196" t="n">
-        <v>310.9166666666667</v>
+        <v>310.9666666666666</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5481,21 +6071,24 @@
         <v>304</v>
       </c>
       <c r="C197" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D197" t="n">
         <v>304</v>
       </c>
       <c r="E197" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F197" t="n">
-        <v>2083.0476</v>
+        <v>5</v>
       </c>
       <c r="G197" t="n">
-        <v>310.7666666666667</v>
+        <v>310.9166666666667</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C198" t="n">
         <v>303</v>
       </c>
       <c r="D198" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E198" t="n">
         <v>303</v>
       </c>
       <c r="F198" t="n">
-        <v>2526.848</v>
+        <v>2083.0476</v>
       </c>
       <c r="G198" t="n">
-        <v>310.6</v>
+        <v>310.7666666666667</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,7 +6126,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C199" t="n">
         <v>303</v>
@@ -5539,15 +6135,18 @@
         <v>303</v>
       </c>
       <c r="E199" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F199" t="n">
-        <v>1254.2699</v>
+        <v>2526.848</v>
       </c>
       <c r="G199" t="n">
-        <v>310.3833333333333</v>
+        <v>310.6</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5559,7 +6158,7 @@
         <v>302</v>
       </c>
       <c r="C200" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D200" t="n">
         <v>303</v>
@@ -5568,12 +6167,15 @@
         <v>302</v>
       </c>
       <c r="F200" t="n">
-        <v>493.3835</v>
+        <v>1254.2699</v>
       </c>
       <c r="G200" t="n">
-        <v>310.2</v>
+        <v>310.3833333333333</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5585,21 +6187,24 @@
         <v>302</v>
       </c>
       <c r="C201" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D201" t="n">
         <v>303</v>
       </c>
       <c r="E201" t="n">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F201" t="n">
-        <v>10769.0133</v>
+        <v>493.3835</v>
       </c>
       <c r="G201" t="n">
-        <v>309.9833333333333</v>
+        <v>310.2</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C202" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D202" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E202" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F202" t="n">
-        <v>11</v>
+        <v>10769.0133</v>
       </c>
       <c r="G202" t="n">
-        <v>309.7333333333333</v>
+        <v>309.9833333333333</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C203" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D203" t="n">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E203" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F203" t="n">
-        <v>262.6886</v>
+        <v>11</v>
       </c>
       <c r="G203" t="n">
-        <v>309.4833333333333</v>
+        <v>309.7333333333333</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C204" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D204" t="n">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E204" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F204" t="n">
-        <v>1078.7326</v>
+        <v>262.6886</v>
       </c>
       <c r="G204" t="n">
-        <v>309.1666666666667</v>
+        <v>309.4833333333333</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5689,21 +6303,24 @@
         <v>298</v>
       </c>
       <c r="C205" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D205" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E205" t="n">
         <v>298</v>
       </c>
       <c r="F205" t="n">
-        <v>2</v>
+        <v>1078.7326</v>
       </c>
       <c r="G205" t="n">
-        <v>308.8333333333333</v>
+        <v>309.1666666666667</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C206" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D206" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E206" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F206" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G206" t="n">
-        <v>308.5666666666667</v>
+        <v>308.8333333333333</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C207" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D207" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E207" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F207" t="n">
-        <v>1313.2605</v>
+        <v>10</v>
       </c>
       <c r="G207" t="n">
-        <v>308.3166666666667</v>
+        <v>308.5666666666667</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C208" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D208" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E208" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F208" t="n">
-        <v>2900.3157</v>
+        <v>1313.2605</v>
       </c>
       <c r="G208" t="n">
-        <v>308.0833333333333</v>
+        <v>308.3166666666667</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C209" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D209" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E209" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F209" t="n">
-        <v>4715.6274</v>
+        <v>2900.3157</v>
       </c>
       <c r="G209" t="n">
-        <v>307.8166666666667</v>
+        <v>308.0833333333333</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>296</v>
       </c>
       <c r="F210" t="n">
-        <v>14.6355</v>
+        <v>4715.6274</v>
       </c>
       <c r="G210" t="n">
-        <v>307.55</v>
+        <v>307.8166666666667</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C211" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D211" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E211" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F211" t="n">
-        <v>92.4684</v>
+        <v>14.6355</v>
       </c>
       <c r="G211" t="n">
-        <v>307.3</v>
+        <v>307.55</v>
       </c>
       <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5871,21 +6506,24 @@
         <v>297</v>
       </c>
       <c r="C212" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D212" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E212" t="n">
         <v>297</v>
       </c>
       <c r="F212" t="n">
-        <v>1499.6898</v>
+        <v>92.4684</v>
       </c>
       <c r="G212" t="n">
-        <v>307.0666666666667</v>
+        <v>307.3</v>
       </c>
       <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5897,21 +6535,24 @@
         <v>297</v>
       </c>
       <c r="C213" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D213" t="n">
         <v>297</v>
       </c>
       <c r="E213" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F213" t="n">
-        <v>7906.9911</v>
+        <v>1499.6898</v>
       </c>
       <c r="G213" t="n">
-        <v>306.8166666666667</v>
+        <v>307.0666666666667</v>
       </c>
       <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5923,21 +6564,24 @@
         <v>297</v>
       </c>
       <c r="C214" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D214" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E214" t="n">
         <v>296</v>
       </c>
       <c r="F214" t="n">
-        <v>3656.2656</v>
+        <v>7906.9911</v>
       </c>
       <c r="G214" t="n">
-        <v>306.5</v>
+        <v>306.8166666666667</v>
       </c>
       <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,7 +6590,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C215" t="n">
         <v>300</v>
@@ -5955,15 +6599,18 @@
         <v>300</v>
       </c>
       <c r="E215" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F215" t="n">
-        <v>6853.6475</v>
+        <v>3656.2656</v>
       </c>
       <c r="G215" t="n">
-        <v>306.2666666666667</v>
+        <v>306.5</v>
       </c>
       <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5984,12 +6631,15 @@
         <v>300</v>
       </c>
       <c r="F216" t="n">
-        <v>147.6429</v>
+        <v>6853.6475</v>
       </c>
       <c r="G216" t="n">
-        <v>306.1</v>
+        <v>306.2666666666667</v>
       </c>
       <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6010,12 +6660,15 @@
         <v>300</v>
       </c>
       <c r="F217" t="n">
-        <v>64.6382</v>
+        <v>147.6429</v>
       </c>
       <c r="G217" t="n">
-        <v>305.9333333333333</v>
+        <v>306.1</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C218" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D218" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E218" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F218" t="n">
-        <v>8346.398300000001</v>
+        <v>64.6382</v>
       </c>
       <c r="G218" t="n">
-        <v>305.65</v>
+        <v>305.9333333333333</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6053,21 +6709,24 @@
         <v>302</v>
       </c>
       <c r="C219" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D219" t="n">
         <v>302</v>
       </c>
       <c r="E219" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F219" t="n">
-        <v>20190.3298</v>
+        <v>8346.398300000001</v>
       </c>
       <c r="G219" t="n">
-        <v>305.5166666666667</v>
+        <v>305.65</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>302</v>
+      </c>
+      <c r="C220" t="n">
         <v>300</v>
       </c>
-      <c r="C220" t="n">
-        <v>304</v>
-      </c>
       <c r="D220" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E220" t="n">
         <v>300</v>
       </c>
       <c r="F220" t="n">
-        <v>71.0032921</v>
+        <v>20190.3298</v>
       </c>
       <c r="G220" t="n">
-        <v>305.4</v>
+        <v>305.5166666666667</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6105,21 +6767,24 @@
         <v>300</v>
       </c>
       <c r="C221" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D221" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E221" t="n">
         <v>300</v>
       </c>
       <c r="F221" t="n">
-        <v>1232.7985</v>
+        <v>71.0032921</v>
       </c>
       <c r="G221" t="n">
-        <v>305.1833333333333</v>
+        <v>305.4</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6140,12 +6805,15 @@
         <v>300</v>
       </c>
       <c r="F222" t="n">
-        <v>1653.4848</v>
+        <v>1232.7985</v>
       </c>
       <c r="G222" t="n">
-        <v>304.8833333333333</v>
+        <v>305.1833333333333</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,12 +6834,15 @@
         <v>300</v>
       </c>
       <c r="F223" t="n">
-        <v>262.4129</v>
+        <v>1653.4848</v>
       </c>
       <c r="G223" t="n">
-        <v>304.6</v>
+        <v>304.8833333333333</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6192,12 +6863,15 @@
         <v>300</v>
       </c>
       <c r="F224" t="n">
-        <v>9841.3986</v>
+        <v>262.4129</v>
       </c>
       <c r="G224" t="n">
-        <v>304.3333333333333</v>
+        <v>304.6</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C225" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D225" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E225" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F225" t="n">
-        <v>5755.8201</v>
+        <v>9841.3986</v>
       </c>
       <c r="G225" t="n">
-        <v>304.1666666666667</v>
+        <v>304.3333333333333</v>
       </c>
       <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>302</v>
+      </c>
+      <c r="C226" t="n">
         <v>306</v>
       </c>
-      <c r="C226" t="n">
-        <v>308</v>
-      </c>
       <c r="D226" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E226" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F226" t="n">
-        <v>8626.222900000001</v>
+        <v>5755.8201</v>
       </c>
       <c r="G226" t="n">
-        <v>304.0333333333334</v>
+        <v>304.1666666666667</v>
       </c>
       <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C227" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D227" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E227" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F227" t="n">
-        <v>11310.0912</v>
+        <v>8626.222900000001</v>
       </c>
       <c r="G227" t="n">
-        <v>303.95</v>
+        <v>304.0333333333334</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C228" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D228" t="n">
         <v>312</v>
       </c>
       <c r="E228" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F228" t="n">
-        <v>9442.259148380001</v>
+        <v>11310.0912</v>
       </c>
       <c r="G228" t="n">
-        <v>303.9166666666667</v>
+        <v>303.95</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C229" t="n">
         <v>312</v>
       </c>
       <c r="D229" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E229" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F229" t="n">
-        <v>4391.63121086</v>
+        <v>9442.259148380001</v>
       </c>
       <c r="G229" t="n">
-        <v>303.8833333333333</v>
+        <v>303.9166666666667</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C230" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D230" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E230" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F230" t="n">
-        <v>1245.8789</v>
+        <v>4391.63121086</v>
       </c>
       <c r="G230" t="n">
-        <v>303.85</v>
+        <v>303.8833333333333</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C231" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D231" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E231" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F231" t="n">
-        <v>726.9195999999999</v>
+        <v>1245.8789</v>
       </c>
       <c r="G231" t="n">
-        <v>303.9166666666667</v>
+        <v>303.85</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C232" t="n">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="D232" t="n">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="E232" t="n">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F232" t="n">
-        <v>13101.9517</v>
+        <v>726.9195999999999</v>
       </c>
       <c r="G232" t="n">
-        <v>303.8</v>
+        <v>303.9166666666667</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>301</v>
+      </c>
+      <c r="C233" t="n">
         <v>300</v>
       </c>
-      <c r="C233" t="n">
-        <v>303</v>
-      </c>
       <c r="D233" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E233" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F233" t="n">
-        <v>2694.7747</v>
+        <v>13101.9517</v>
       </c>
       <c r="G233" t="n">
-        <v>303.7666666666667</v>
+        <v>303.8</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C234" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D234" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E234" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F234" t="n">
-        <v>100.435</v>
+        <v>2694.7747</v>
       </c>
       <c r="G234" t="n">
-        <v>303.7</v>
+        <v>303.7666666666667</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6469,21 +7173,24 @@
         <v>302</v>
       </c>
       <c r="C235" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D235" t="n">
         <v>302</v>
       </c>
       <c r="E235" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F235" t="n">
-        <v>2723.5346</v>
+        <v>100.435</v>
       </c>
       <c r="G235" t="n">
-        <v>303.5666666666667</v>
+        <v>303.7</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6504,12 +7211,15 @@
         <v>302</v>
       </c>
       <c r="F236" t="n">
-        <v>1602.5794</v>
+        <v>2723.5346</v>
       </c>
       <c r="G236" t="n">
-        <v>303.4333333333333</v>
+        <v>303.5666666666667</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6521,21 +7231,24 @@
         <v>302</v>
       </c>
       <c r="C237" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D237" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E237" t="n">
         <v>302</v>
       </c>
       <c r="F237" t="n">
-        <v>1405.2898</v>
+        <v>1602.5794</v>
       </c>
       <c r="G237" t="n">
-        <v>303.3</v>
+        <v>303.4333333333333</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C238" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D238" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E238" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F238" t="n">
-        <v>96.6863</v>
+        <v>1405.2898</v>
       </c>
       <c r="G238" t="n">
-        <v>303.2166666666666</v>
+        <v>303.3</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,7 +7286,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C239" t="n">
         <v>305</v>
@@ -6579,15 +7295,18 @@
         <v>305</v>
       </c>
       <c r="E239" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F239" t="n">
-        <v>37.1034</v>
+        <v>96.6863</v>
       </c>
       <c r="G239" t="n">
-        <v>303.1666666666667</v>
+        <v>303.2166666666666</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C240" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D240" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E240" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F240" t="n">
-        <v>61.4869</v>
+        <v>37.1034</v>
       </c>
       <c r="G240" t="n">
-        <v>303.0666666666667</v>
+        <v>303.1666666666667</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C241" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D241" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E241" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F241" t="n">
-        <v>1387.0106</v>
+        <v>61.4869</v>
       </c>
       <c r="G241" t="n">
-        <v>303.05</v>
+        <v>303.0666666666667</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C242" t="n">
         <v>300</v>
       </c>
       <c r="D242" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E242" t="n">
         <v>300</v>
       </c>
       <c r="F242" t="n">
-        <v>1435.1617</v>
+        <v>1387.0106</v>
       </c>
       <c r="G242" t="n">
-        <v>303.0333333333334</v>
+        <v>303.05</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C243" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D243" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E243" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F243" t="n">
-        <v>451</v>
+        <v>1435.1617</v>
       </c>
       <c r="G243" t="n">
-        <v>303.0166666666667</v>
+        <v>303.0333333333334</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C244" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D244" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E244" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F244" t="n">
-        <v>75.1253</v>
+        <v>451</v>
       </c>
       <c r="G244" t="n">
-        <v>303.05</v>
+        <v>303.0166666666667</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C245" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D245" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E245" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F245" t="n">
-        <v>798.8058</v>
+        <v>75.1253</v>
       </c>
       <c r="G245" t="n">
-        <v>303.0666666666667</v>
+        <v>303.05</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,544 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C246" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D246" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E246" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F246" t="n">
-        <v>1742.2455</v>
+        <v>798.8058</v>
       </c>
       <c r="G246" t="n">
-        <v>302.95</v>
+        <v>303.0666666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>304</v>
-      </c>
-      <c r="C247" t="n">
-        <v>304</v>
-      </c>
-      <c r="D247" t="n">
-        <v>304</v>
-      </c>
-      <c r="E247" t="n">
-        <v>304</v>
-      </c>
-      <c r="F247" t="n">
-        <v>639.4539</v>
-      </c>
-      <c r="G247" t="n">
-        <v>302.85</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>304</v>
-      </c>
-      <c r="C248" t="n">
-        <v>304</v>
-      </c>
-      <c r="D248" t="n">
-        <v>304</v>
-      </c>
-      <c r="E248" t="n">
-        <v>304</v>
-      </c>
-      <c r="F248" t="n">
-        <v>534.4978</v>
-      </c>
-      <c r="G248" t="n">
-        <v>302.75</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>304</v>
-      </c>
-      <c r="C249" t="n">
-        <v>304</v>
-      </c>
-      <c r="D249" t="n">
-        <v>304</v>
-      </c>
-      <c r="E249" t="n">
-        <v>304</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1165.5022</v>
-      </c>
-      <c r="G249" t="n">
-        <v>302.7166666666666</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>304</v>
-      </c>
-      <c r="C250" t="n">
-        <v>304</v>
-      </c>
-      <c r="D250" t="n">
-        <v>304</v>
-      </c>
-      <c r="E250" t="n">
-        <v>304</v>
-      </c>
-      <c r="F250" t="n">
-        <v>35.3513</v>
-      </c>
-      <c r="G250" t="n">
-        <v>302.6833333333333</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>306</v>
-      </c>
-      <c r="C251" t="n">
-        <v>307</v>
-      </c>
-      <c r="D251" t="n">
-        <v>307</v>
-      </c>
-      <c r="E251" t="n">
-        <v>306</v>
-      </c>
-      <c r="F251" t="n">
-        <v>3161.7296</v>
-      </c>
-      <c r="G251" t="n">
-        <v>302.65</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>305</v>
-      </c>
-      <c r="C252" t="n">
-        <v>305</v>
-      </c>
-      <c r="D252" t="n">
-        <v>305</v>
-      </c>
-      <c r="E252" t="n">
-        <v>305</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1026.977</v>
-      </c>
-      <c r="G252" t="n">
-        <v>302.6333333333333</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>304</v>
-      </c>
-      <c r="C253" t="n">
-        <v>304</v>
-      </c>
-      <c r="D253" t="n">
-        <v>304</v>
-      </c>
-      <c r="E253" t="n">
-        <v>304</v>
-      </c>
-      <c r="F253" t="n">
-        <v>330</v>
-      </c>
-      <c r="G253" t="n">
-        <v>302.6333333333333</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>305</v>
-      </c>
-      <c r="C254" t="n">
-        <v>305</v>
-      </c>
-      <c r="D254" t="n">
-        <v>305</v>
-      </c>
-      <c r="E254" t="n">
-        <v>305</v>
-      </c>
-      <c r="F254" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G254" t="n">
-        <v>302.65</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>302</v>
-      </c>
-      <c r="C255" t="n">
-        <v>302</v>
-      </c>
-      <c r="D255" t="n">
-        <v>302</v>
-      </c>
-      <c r="E255" t="n">
-        <v>302</v>
-      </c>
-      <c r="F255" t="n">
-        <v>13.7142</v>
-      </c>
-      <c r="G255" t="n">
-        <v>302.55</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>303</v>
-      </c>
-      <c r="C256" t="n">
-        <v>303</v>
-      </c>
-      <c r="D256" t="n">
-        <v>303</v>
-      </c>
-      <c r="E256" t="n">
-        <v>303</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1.995</v>
-      </c>
-      <c r="G256" t="n">
-        <v>302.5333333333334</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>303</v>
-      </c>
-      <c r="C257" t="n">
-        <v>303</v>
-      </c>
-      <c r="D257" t="n">
-        <v>303</v>
-      </c>
-      <c r="E257" t="n">
-        <v>303</v>
-      </c>
-      <c r="F257" t="n">
-        <v>675.7134</v>
-      </c>
-      <c r="G257" t="n">
-        <v>302.5333333333334</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>302</v>
-      </c>
-      <c r="C258" t="n">
-        <v>302</v>
-      </c>
-      <c r="D258" t="n">
-        <v>302</v>
-      </c>
-      <c r="E258" t="n">
-        <v>302</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2302.496</v>
-      </c>
-      <c r="G258" t="n">
-        <v>302.5166666666667</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>302</v>
-      </c>
-      <c r="C259" t="n">
-        <v>301</v>
-      </c>
-      <c r="D259" t="n">
-        <v>302</v>
-      </c>
-      <c r="E259" t="n">
-        <v>301</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1392.94870397</v>
-      </c>
-      <c r="G259" t="n">
-        <v>302.4833333333333</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>301</v>
-      </c>
-      <c r="C260" t="n">
-        <v>302</v>
-      </c>
-      <c r="D260" t="n">
-        <v>302</v>
-      </c>
-      <c r="E260" t="n">
-        <v>300</v>
-      </c>
-      <c r="F260" t="n">
-        <v>731.67317483</v>
-      </c>
-      <c r="G260" t="n">
-        <v>302.4833333333333</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>302</v>
-      </c>
-      <c r="C261" t="n">
-        <v>305</v>
-      </c>
-      <c r="D261" t="n">
-        <v>305</v>
-      </c>
-      <c r="E261" t="n">
-        <v>302</v>
-      </c>
-      <c r="F261" t="n">
-        <v>40.9958212</v>
-      </c>
-      <c r="G261" t="n">
-        <v>302.5166666666667</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>305</v>
-      </c>
-      <c r="C262" t="n">
-        <v>305</v>
-      </c>
-      <c r="D262" t="n">
-        <v>305</v>
-      </c>
-      <c r="E262" t="n">
-        <v>305</v>
-      </c>
-      <c r="F262" t="n">
-        <v>164</v>
-      </c>
-      <c r="G262" t="n">
-        <v>302.5833333333333</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>305</v>
-      </c>
-      <c r="C263" t="n">
-        <v>303</v>
-      </c>
-      <c r="D263" t="n">
-        <v>305</v>
-      </c>
-      <c r="E263" t="n">
-        <v>303</v>
-      </c>
-      <c r="F263" t="n">
-        <v>344.9453</v>
-      </c>
-      <c r="G263" t="n">
-        <v>302.5833333333333</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>305</v>
-      </c>
-      <c r="C264" t="n">
-        <v>307</v>
-      </c>
-      <c r="D264" t="n">
-        <v>307</v>
-      </c>
-      <c r="E264" t="n">
-        <v>305</v>
-      </c>
-      <c r="F264" t="n">
-        <v>2875.7708</v>
-      </c>
-      <c r="G264" t="n">
-        <v>302.6833333333333</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>308</v>
-      </c>
-      <c r="C265" t="n">
-        <v>308</v>
-      </c>
-      <c r="D265" t="n">
-        <v>308</v>
-      </c>
-      <c r="E265" t="n">
-        <v>308</v>
-      </c>
-      <c r="F265" t="n">
-        <v>2917.1037</v>
-      </c>
-      <c r="G265" t="n">
-        <v>302.85</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>308</v>
-      </c>
-      <c r="C266" t="n">
-        <v>312</v>
-      </c>
-      <c r="D266" t="n">
-        <v>312</v>
-      </c>
-      <c r="E266" t="n">
-        <v>308</v>
-      </c>
-      <c r="F266" t="n">
-        <v>19032.4951</v>
-      </c>
-      <c r="G266" t="n">
-        <v>303.05</v>
-      </c>
-      <c r="H266" t="n">
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
